--- a/Horario/TablaProfesores.xlsx
+++ b/Horario/TablaProfesores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uriel\OneDrive\Escritorio\Uriel\Python\Horario\Horario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3D6EEF-04F4-4416-A05F-A1B88DC72EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27869182-CC8C-4C31-8737-5A11BE23757A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DCD43E75-504C-41A3-A0BC-E6862BE06F53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="200">
   <si>
     <t>Grupo</t>
   </si>
@@ -359,36 +359,9 @@
     <t>X</t>
   </si>
   <si>
-    <t>RAMIREZ GUZMAN ALICIA MARCELA</t>
-  </si>
-  <si>
-    <t>MINERIA DE DATOS|STATISTICAL TOOLS FOR DATA ANALYTICS</t>
-  </si>
-  <si>
-    <t>GONZALEZ CISNEROS ALEJANDRO</t>
-  </si>
-  <si>
-    <t>BAUTISTA ROSALES SANDRA IVETTE</t>
-  </si>
-  <si>
-    <t>GARCIA MENDOZA CONSUELO VARINIA</t>
-  </si>
-  <si>
-    <t>SISTEMAS COMPLEJOS|CELLULAR AUTOMATA</t>
-  </si>
-  <si>
     <t>JUAREZ MARTINEZ GENARO</t>
   </si>
   <si>
-    <t>GARCIA FLORIANO ANDRES</t>
-  </si>
-  <si>
-    <t>ALGORITMOS BIOINSPIRADOS|GENETIC ALGORITHMS</t>
-  </si>
-  <si>
-    <t>PONCE SERRANO CHRISTOPHER MILIET</t>
-  </si>
-  <si>
     <t>7CM1</t>
   </si>
   <si>
@@ -407,9 +380,6 @@
     <t>ADMINISTRACION DE SERVICIOS EN RED</t>
   </si>
   <si>
-    <t>MARTINEZ ROSALES RICARDO</t>
-  </si>
-  <si>
     <t>7CM2</t>
   </si>
   <si>
@@ -422,12 +392,6 @@
     <t>ENRIQUEZ ZARATE M. en C. JOSE ASUNCION</t>
   </si>
   <si>
-    <t>ZAGAL FLORES ROBERTO ESWART</t>
-  </si>
-  <si>
-    <t>VELEZ SALDAÑA ULISES</t>
-  </si>
-  <si>
     <t>7CM3</t>
   </si>
   <si>
@@ -440,9 +404,6 @@
     <t>7CV1</t>
   </si>
   <si>
-    <t>CRUZ TORRES BENJAMIN</t>
-  </si>
-  <si>
     <t>INTERNET DE LAS COSAS|INTERNET OF THINGS</t>
   </si>
   <si>
@@ -455,15 +416,9 @@
     <t>COMPUTACION GRAFICA|VIRTUAL AND AUGMENTED REALITY</t>
   </si>
   <si>
-    <t>CRUZ CARLIN EFREN</t>
-  </si>
-  <si>
     <t>VISION POR COMPUTADORA|IMAGE ANALYSIS</t>
   </si>
   <si>
-    <t>DE LA O TORRES SAUL</t>
-  </si>
-  <si>
     <t>PINEDA GUERRERO CARLOS</t>
   </si>
   <si>
@@ -488,85 +443,103 @@
     <t>INTE6CM1</t>
   </si>
   <si>
-    <t>SIST6CM1</t>
-  </si>
-  <si>
-    <t>MINE6CM1</t>
-  </si>
-  <si>
-    <t>APLI6CM1</t>
+    <t>CRIPTOGRAFIA|SELECTED TOPICS IN CRYPTOGRAPHY</t>
+  </si>
+  <si>
+    <t>BIG DATA|BIG DATA</t>
+  </si>
+  <si>
+    <t>8CV1</t>
+  </si>
+  <si>
+    <t>CRUZ LAZARO ING. APOLINAR FRANCISCO</t>
+  </si>
+  <si>
+    <t>JIMENEZ GALAN YASMIN IVETTE</t>
+  </si>
+  <si>
+    <t>PEREZ VERA SANDRA MERCEDES</t>
+  </si>
+  <si>
+    <t>SANTANDER BAÑOS FREDY</t>
+  </si>
+  <si>
+    <t>6CM4</t>
+  </si>
+  <si>
+    <t>CAMACHO VAZQUEZ VANESSA ALEJANDRA</t>
+  </si>
+  <si>
+    <t>RIVERA DE LA ROSA MONICA</t>
+  </si>
+  <si>
+    <t>GASPAR MEDINA FABIAN</t>
+  </si>
+  <si>
+    <t>SANCHEZ BRITO MIGUEL</t>
+  </si>
+  <si>
+    <t>MINERIA DE DATOS|DATA MINING</t>
+  </si>
+  <si>
+    <t>OCAMPO BOTELLO FABIOLA</t>
+  </si>
+  <si>
+    <t>EN CONTRATACIÓN .</t>
+  </si>
+  <si>
+    <t>SISTEMAS COMPLEJOS|COMPLEX SYSTEMS</t>
+  </si>
+  <si>
+    <t>TENORIO MARRON MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>15:00-16:30 16:30-18:00</t>
+  </si>
+  <si>
+    <t>ALGORITMOS BIOINSPIRADOS|BIOINFORMATICS</t>
+  </si>
+  <si>
+    <t>SERRANO TALAMANTES J. FELIX</t>
+  </si>
+  <si>
+    <t>7CV3</t>
+  </si>
+  <si>
+    <t>MALDONADO MUÑOZ MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>WINFIELD REYES ANA MARIA</t>
+  </si>
+  <si>
+    <t>8CM2</t>
+  </si>
+  <si>
+    <t>LOYOLA ESPINOSA ARACELI</t>
+  </si>
+  <si>
+    <t>MENDOZA MACIAS ELBA</t>
   </si>
   <si>
     <t>INTE6CM2</t>
   </si>
   <si>
-    <t>SIST6CM2</t>
-  </si>
-  <si>
-    <t>DES.6CM2</t>
-  </si>
-  <si>
-    <t>BIG 6CM1</t>
-  </si>
-  <si>
-    <t>INGE6CM2</t>
-  </si>
-  <si>
-    <t>APLI6CM2</t>
-  </si>
-  <si>
     <t>INTE6CM3</t>
   </si>
   <si>
-    <t>SIST6CM3</t>
-  </si>
-  <si>
-    <t>PROC6CM3</t>
-  </si>
-  <si>
-    <t>APLI6CM3</t>
+    <t>INTE6CM4</t>
   </si>
   <si>
     <t>INTE6CV1</t>
   </si>
   <si>
-    <t>SIST6CV1</t>
-  </si>
-  <si>
-    <t>PROC6CV1</t>
-  </si>
-  <si>
-    <t>ALGO6CV1</t>
-  </si>
-  <si>
-    <t>APLI6CV1</t>
-  </si>
-  <si>
-    <t>INTE6CV2</t>
-  </si>
-  <si>
-    <t>SIST6CV2</t>
-  </si>
-  <si>
-    <t>APLI6CV2</t>
-  </si>
-  <si>
-    <t>INTE6CV3</t>
-  </si>
-  <si>
-    <t>SIST6CV3</t>
-  </si>
-  <si>
-    <t>DES.6CV3</t>
-  </si>
-  <si>
-    <t>GOBI6CV3</t>
-  </si>
-  <si>
-    <t>APLI6CV3</t>
-  </si>
-  <si>
-    <t>GOBI7CM1</t>
+    <t>SIST7CM1</t>
+  </si>
+  <si>
+    <t>DES.7CM1</t>
+  </si>
+  <si>
+    <t>CRIP7CM1</t>
   </si>
   <si>
     <t>DESA7CM1</t>
@@ -578,7 +551,10 @@
     <t>SIST7CM2</t>
   </si>
   <si>
-    <t>DES.7CM2</t>
+    <t>BIG 7CM2</t>
+  </si>
+  <si>
+    <t>MINE7CM2</t>
   </si>
   <si>
     <t>DESA7CM2</t>
@@ -602,7 +578,7 @@
     <t>SIST7CV1</t>
   </si>
   <si>
-    <t>INTE7CV1</t>
+    <t>DES.7CV1</t>
   </si>
   <si>
     <t>GOBI7CV1</t>
@@ -617,7 +593,7 @@
     <t>SIST7CV2</t>
   </si>
   <si>
-    <t>COMP7CV2</t>
+    <t>ALGO7CV2</t>
   </si>
   <si>
     <t>VISI7CV2</t>
@@ -629,6 +605,12 @@
     <t>ADMI7CV2</t>
   </si>
   <si>
+    <t>INTE7CV3</t>
+  </si>
+  <si>
+    <t>COMP7CV3</t>
+  </si>
+  <si>
     <t>LIDE8CM1</t>
   </si>
   <si>
@@ -638,88 +620,13 @@
     <t>DESA8CM1</t>
   </si>
   <si>
-    <t>MARQUEZ ARREGUIN GUILLERMO</t>
-  </si>
-  <si>
-    <t>ROJAS MEXICANO ISMAEL</t>
-  </si>
-  <si>
-    <t>OJEDA SANTILLAN RODRIGO</t>
-  </si>
-  <si>
-    <t>PALMA OROZCO ROSAURA</t>
-  </si>
-  <si>
-    <t>MELARA ABARCA REYNA ELIA</t>
-  </si>
-  <si>
-    <t>CALDERON SAMBARINO MARIA JULIA</t>
-  </si>
-  <si>
-    <t>CRIPTOGRAFIA|SELECTED TOPICS IN CRYPTOGRAPHY</t>
-  </si>
-  <si>
-    <t>DIAZ SANTIAGO SANDRA</t>
-  </si>
-  <si>
-    <t>BIG DATA|BIG DATA</t>
-  </si>
-  <si>
-    <t>8CV1</t>
-  </si>
-  <si>
-    <t>CRUZ LAZARO ING. APOLINAR FRANCISCO</t>
-  </si>
-  <si>
-    <t>JIMENEZ GALAN YASMIN IVETTE</t>
-  </si>
-  <si>
-    <t>PEREZ VERA SANDRA MERCEDES</t>
-  </si>
-  <si>
-    <t>METO6CM1</t>
-  </si>
-  <si>
-    <t>INGE6CM1</t>
-  </si>
-  <si>
-    <t>METO6CM2</t>
-  </si>
-  <si>
-    <t>CRIP6CM2</t>
-  </si>
-  <si>
-    <t>METO6CM3</t>
-  </si>
-  <si>
-    <t>INGE6CM3</t>
-  </si>
-  <si>
-    <t>METO6CV1</t>
-  </si>
-  <si>
-    <t>INGE6CV1</t>
-  </si>
-  <si>
-    <t>METO6CV2</t>
-  </si>
-  <si>
-    <t>COMP6CV2</t>
-  </si>
-  <si>
-    <t>INGE6CV2</t>
-  </si>
-  <si>
-    <t>METO6CV3</t>
-  </si>
-  <si>
-    <t>INGE6CV3</t>
-  </si>
-  <si>
-    <t>CRIP7CM1</t>
-  </si>
-  <si>
-    <t>BIG 7CM2</t>
+    <t>LIDE8CM2</t>
+  </si>
+  <si>
+    <t>GEST8CM2</t>
+  </si>
+  <si>
+    <t>DESA8CM2</t>
   </si>
   <si>
     <t>LIDE8CV1</t>
@@ -874,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -916,12 +823,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1238,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A15A8-3AAC-4801-AE8E-A32DD8E1C3AA}">
   <dimension ref="A2:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1254,7 +1155,7 @@
     <col min="12" max="12" width="3.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1294,2271 +1195,1180 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="D3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>7</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="5"/>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7"/>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="9"/>
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="9"/>
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>113</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="9"/>
+        <v>166</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>11</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="7"/>
+        <v>167</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="9"/>
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>11</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>11</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="9"/>
+        <v>170</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>209</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>11</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="7"/>
+        <v>171</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>209</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>11</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="9"/>
+        <v>172</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>209</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>209</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>209</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>210</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>210</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>210</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>210</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" t="s">
+        <v>70</v>
+      </c>
+      <c r="K30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>211</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>211</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>211</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>11</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>12</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>211</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" t="s">
         <v>160</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>12</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>217</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>12</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>12</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>12</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>12</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="16">
-        <v>1</v>
-      </c>
-      <c r="F23" s="16">
-        <v>12</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="10"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4">
-        <v>7</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>211</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>211</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+      <c r="K42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
         <v>72</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="J43" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2">
-        <v>7</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>219</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>7</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2">
-        <v>7</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>7</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>220</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2">
-        <v>7</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>7</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>168</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2">
-        <v>11</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>169</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>11</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>221</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2">
-        <v>11</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>168</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>11</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L34" s="9"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>222</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2">
-        <v>11</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K35" s="2"/>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>223</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>11</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="9"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2">
-        <v>11</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>171</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>12</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="9"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2">
-        <v>12</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>224</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
-        <v>12</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L40" s="9"/>
-    </row>
-    <row r="41" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>173</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2">
-        <v>12</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K41" s="2"/>
-      <c r="L41" s="7"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>174</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>12</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K42" s="1"/>
-      <c r="L42" s="9"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>225</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
-        <v>12</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L43" s="7"/>
-    </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>175</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="16">
-        <v>1</v>
-      </c>
-      <c r="F44" s="16">
-        <v>12</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="K44" s="16"/>
-      <c r="L44" s="10"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>176</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="4">
-        <v>1</v>
-      </c>
-      <c r="F45" s="4">
-        <v>13</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L45" s="5"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>226</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E46" s="2">
-        <v>1</v>
-      </c>
-      <c r="F46" s="2">
-        <v>13</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K46" s="2"/>
-      <c r="L46" s="7"/>
-    </row>
-    <row r="47" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1">
-        <v>13</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L47" s="9"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>178</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E48" s="2">
-        <v>1</v>
-      </c>
-      <c r="F48" s="2">
-        <v>13</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L48" s="7"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>179</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" s="1">
-        <v>2</v>
-      </c>
-      <c r="F49" s="1">
-        <v>209</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49" s="1"/>
-      <c r="L49" s="9"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>227</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E50" s="2">
-        <v>2</v>
-      </c>
-      <c r="F50" s="2">
-        <v>209</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L50" s="7"/>
-    </row>
-    <row r="51" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>180</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E51" s="1">
-        <v>2</v>
-      </c>
-      <c r="F51" s="1">
-        <v>209</v>
-      </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L51" s="9"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>181</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" s="2">
-        <v>2</v>
-      </c>
-      <c r="F52" s="2">
-        <v>209</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2"/>
-      <c r="L52" s="7"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>182</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="1">
-        <v>2</v>
-      </c>
-      <c r="F53" s="1">
-        <v>209</v>
-      </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L53" s="9"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>183</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E54" s="2">
-        <v>2</v>
-      </c>
-      <c r="F54" s="2">
-        <v>210</v>
-      </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L54" s="7"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>184</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E55" s="1">
-        <v>2</v>
-      </c>
-      <c r="F55" s="1">
-        <v>210</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K55" s="1"/>
-      <c r="L55" s="9"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>185</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E56" s="2">
-        <v>2</v>
-      </c>
-      <c r="F56" s="2">
-        <v>210</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K56" s="2"/>
-      <c r="L56" s="7"/>
-    </row>
-    <row r="57" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>186</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E57" s="16">
-        <v>2</v>
-      </c>
-      <c r="F57" s="16">
-        <v>210</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J57" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="16"/>
-      <c r="L57" s="10"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>187</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" s="4">
-        <v>1</v>
-      </c>
-      <c r="F58" s="4">
-        <v>13</v>
-      </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L58" s="5"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>188</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E59" s="2">
-        <v>1</v>
-      </c>
-      <c r="F59" s="2">
-        <v>13</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K59" s="2"/>
-      <c r="L59" s="7"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>189</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" s="1">
-        <v>1</v>
-      </c>
-      <c r="F60" s="1">
-        <v>13</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L60" s="9"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>190</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E61" s="2">
-        <v>1</v>
-      </c>
-      <c r="F61" s="2">
-        <v>13</v>
-      </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L61" s="7"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>191</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1">
-        <v>13</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K62" s="1"/>
-      <c r="L62" s="9"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>192</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E63" s="2">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2">
-        <v>14</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K63" s="2"/>
-      <c r="L63" s="7"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>193</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E64" s="1">
-        <v>1</v>
-      </c>
-      <c r="F64" s="1">
-        <v>14</v>
-      </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L64" s="9"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>194</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E65" s="2">
-        <v>1</v>
-      </c>
-      <c r="F65" s="2">
-        <v>14</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L65" s="7"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>195</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" s="1">
-        <v>1</v>
-      </c>
-      <c r="F66" s="1">
-        <v>14</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K66" s="1"/>
-      <c r="L66" s="9"/>
-    </row>
-    <row r="67" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>196</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E67" s="12">
-        <v>1</v>
-      </c>
-      <c r="F67" s="12">
-        <v>14</v>
-      </c>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I67" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="L67" s="13"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>197</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E68" s="4">
-        <v>2</v>
-      </c>
-      <c r="F68" s="4">
-        <v>211</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K68" s="4"/>
-      <c r="L68" s="5"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>198</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E69" s="2">
-        <v>2</v>
-      </c>
-      <c r="F69" s="2">
-        <v>211</v>
-      </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L69" s="7"/>
-    </row>
-    <row r="70" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>199</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E70" s="16">
-        <v>2</v>
-      </c>
-      <c r="F70" s="16">
-        <v>211</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="10"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>228</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E71" s="4">
-        <v>2</v>
-      </c>
-      <c r="F71" s="4">
-        <v>209</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K71" s="4"/>
-      <c r="L71" s="5"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>229</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E72" s="2">
-        <v>2</v>
-      </c>
-      <c r="F72" s="2">
-        <v>209</v>
-      </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L72" s="7"/>
-    </row>
-    <row r="73" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>230</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="E73" s="16">
-        <v>2</v>
-      </c>
-      <c r="F73" s="16">
-        <v>209</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="L73" s="10"/>
     </row>
     <row r="128" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B128" s="11"/>
